--- a/evaluation/go-up-left/evaluation.xlsx
+++ b/evaluation/go-up-left/evaluation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0ca65449af92ce79/!FH/MA/git/WakeWordPicoW/evaluation/go-up-left/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="154" documentId="8_{F9D07428-2867-48BC-B9E2-8CCBF4F4083D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{87D0310C-4B1C-4415-A38E-B59B7BF95AAF}"/>
+  <xr:revisionPtr revIDLastSave="156" documentId="8_{F9D07428-2867-48BC-B9E2-8CCBF4F4083D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{391B38F0-DC1A-478D-8F87-3012CDCECD60}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FFF0A4DB-B991-4289-9116-52795F214A99}"/>
+    <workbookView xWindow="-15060" yWindow="60" windowWidth="12150" windowHeight="15600" xr2:uid="{FFF0A4DB-B991-4289-9116-52795F214A99}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="7">
   <si>
     <t>go</t>
   </si>
@@ -50,9 +50,6 @@
     <t>wrong</t>
   </si>
   <si>
-    <t>nothing</t>
-  </si>
-  <si>
     <t>word</t>
   </si>
   <si>
@@ -60,12 +57,6 @@
   </si>
   <si>
     <t>left</t>
-  </si>
-  <si>
-    <t>total</t>
-  </si>
-  <si>
-    <t>free</t>
   </si>
 </sst>
 </file>
@@ -118,6 +109,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -437,36 +432,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE5381C8-FE10-4903-8C08-1A4C39DC53A3}">
-  <dimension ref="B1:E66"/>
+  <dimension ref="B3:D66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="D66" sqref="D66"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B1">
-        <v>2.4500000000000001E-2</v>
-      </c>
-      <c r="C1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C2">
-        <v>168792</v>
-      </c>
-      <c r="D2">
-        <v>34456</v>
-      </c>
-    </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
         <v>2</v>
@@ -474,112 +450,109 @@
       <c r="D3" t="s">
         <v>3</v>
       </c>
-      <c r="E3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>0</v>
       </c>
       <c r="C10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>0</v>
       </c>
       <c r="C12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>0</v>
       </c>
       <c r="C13" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>0</v>
       </c>
       <c r="C14" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>0</v>
       </c>
       <c r="C15" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>0</v>
       </c>
       <c r="C16" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
@@ -587,7 +560,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
@@ -595,7 +568,7 @@
         <v>0</v>
       </c>
       <c r="C18" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
@@ -603,7 +576,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.25">
@@ -611,7 +584,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.25">
@@ -619,7 +592,7 @@
         <v>0</v>
       </c>
       <c r="C21" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.25">
@@ -627,7 +600,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.25">
@@ -635,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.25">
@@ -643,7 +616,7 @@
         <v>0</v>
       </c>
       <c r="C24" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.25">
@@ -651,7 +624,7 @@
         <v>1</v>
       </c>
       <c r="D25" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.25">
@@ -659,7 +632,7 @@
         <v>1</v>
       </c>
       <c r="C26" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.25">
@@ -667,7 +640,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.25">
@@ -675,10 +648,10 @@
         <v>1</v>
       </c>
       <c r="C28" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D28" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.25">
@@ -686,7 +659,7 @@
         <v>1</v>
       </c>
       <c r="C29" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.25">
@@ -694,10 +667,10 @@
         <v>1</v>
       </c>
       <c r="C30" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D30" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.25">
@@ -705,7 +678,7 @@
         <v>1</v>
       </c>
       <c r="D31" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.25">
@@ -713,7 +686,7 @@
         <v>1</v>
       </c>
       <c r="D32" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.25">
@@ -721,10 +694,10 @@
         <v>1</v>
       </c>
       <c r="C33" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D33" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.25">
@@ -732,7 +705,7 @@
         <v>1</v>
       </c>
       <c r="C34" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.25">
@@ -740,10 +713,10 @@
         <v>1</v>
       </c>
       <c r="C35" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D35" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.25">
@@ -751,7 +724,7 @@
         <v>1</v>
       </c>
       <c r="C36" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.25">
@@ -759,7 +732,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.25">
@@ -767,7 +740,7 @@
         <v>1</v>
       </c>
       <c r="D38" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.25">
@@ -775,7 +748,7 @@
         <v>1</v>
       </c>
       <c r="C39" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.25">
@@ -783,7 +756,7 @@
         <v>1</v>
       </c>
       <c r="C40" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.25">
@@ -791,7 +764,7 @@
         <v>1</v>
       </c>
       <c r="C41" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.25">
@@ -799,10 +772,10 @@
         <v>1</v>
       </c>
       <c r="C42" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D42" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.25">
@@ -810,7 +783,7 @@
         <v>1</v>
       </c>
       <c r="C43" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.25">
@@ -818,7 +791,7 @@
         <v>1</v>
       </c>
       <c r="C44" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.25">
@@ -826,175 +799,175 @@
         <v>1</v>
       </c>
       <c r="D45" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D46" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D47" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="48" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C48" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D49" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D50" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D51" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="52" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D52" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D53" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="54" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D54" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="55" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D55" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="56" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D56" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="57" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D57" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="58" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C58" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="59" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D59" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="60" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D60" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="61" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D61" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="62" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D62" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="63" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D63" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="64" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D64" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="65" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C65" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="66" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D66" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/evaluation/go-up-left/evaluation.xlsx
+++ b/evaluation/go-up-left/evaluation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0ca65449af92ce79/!FH/MA/git/WakeWordPicoW/evaluation/go-up-left/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="156" documentId="8_{F9D07428-2867-48BC-B9E2-8CCBF4F4083D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{391B38F0-DC1A-478D-8F87-3012CDCECD60}"/>
+  <xr:revisionPtr revIDLastSave="167" documentId="8_{F9D07428-2867-48BC-B9E2-8CCBF4F4083D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{74ED4A24-05D0-4194-B057-33A7B9E71F3A}"/>
   <bookViews>
-    <workbookView xWindow="-15060" yWindow="60" windowWidth="12150" windowHeight="15600" xr2:uid="{FFF0A4DB-B991-4289-9116-52795F214A99}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FFF0A4DB-B991-4289-9116-52795F214A99}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="8">
   <si>
     <t>go</t>
   </si>
@@ -57,6 +57,9 @@
   </si>
   <si>
     <t>left</t>
+  </si>
+  <si>
+    <t>unclear</t>
   </si>
 </sst>
 </file>
@@ -432,15 +435,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE5381C8-FE10-4903-8C08-1A4C39DC53A3}">
-  <dimension ref="B3:D66"/>
+  <dimension ref="B3:E66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>4</v>
       </c>
@@ -450,8 +453,11 @@
       <c r="D3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>0</v>
       </c>
@@ -459,7 +465,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>0</v>
       </c>
@@ -467,7 +473,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>0</v>
       </c>
@@ -475,7 +481,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>0</v>
       </c>
@@ -483,7 +489,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>0</v>
       </c>
@@ -491,7 +497,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>0</v>
       </c>
@@ -499,7 +505,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>0</v>
       </c>
@@ -507,7 +513,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>0</v>
       </c>
@@ -515,7 +521,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>0</v>
       </c>
@@ -523,7 +529,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>0</v>
       </c>
@@ -531,7 +537,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>0</v>
       </c>
@@ -539,7 +545,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>0</v>
       </c>
@@ -547,7 +553,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>0</v>
       </c>
@@ -555,7 +561,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>0</v>
       </c>
@@ -563,7 +569,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>0</v>
       </c>
@@ -571,7 +577,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>0</v>
       </c>
@@ -579,7 +585,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>0</v>
       </c>
@@ -587,7 +593,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>0</v>
       </c>
@@ -595,7 +601,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>0</v>
       </c>
@@ -603,7 +609,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>0</v>
       </c>
@@ -611,7 +617,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>0</v>
       </c>
@@ -619,7 +625,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>1</v>
       </c>
@@ -627,7 +633,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>1</v>
       </c>
@@ -635,7 +641,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>1</v>
       </c>
@@ -643,18 +649,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>1</v>
       </c>
-      <c r="C28" t="s">
-        <v>5</v>
-      </c>
-      <c r="D28" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E28" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>1</v>
       </c>
@@ -662,18 +665,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>1</v>
       </c>
-      <c r="C30" t="s">
-        <v>5</v>
-      </c>
-      <c r="D30" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E30" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>1</v>
       </c>
@@ -681,7 +681,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>1</v>
       </c>
@@ -689,18 +689,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>1</v>
       </c>
-      <c r="C33" t="s">
-        <v>5</v>
-      </c>
-      <c r="D33" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E33" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>1</v>
       </c>
@@ -708,18 +705,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>1</v>
       </c>
-      <c r="C35" t="s">
-        <v>5</v>
-      </c>
-      <c r="D35" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E35" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>1</v>
       </c>
@@ -727,7 +721,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>1</v>
       </c>
@@ -735,7 +729,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>1</v>
       </c>
@@ -743,7 +737,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>1</v>
       </c>
@@ -751,7 +745,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>1</v>
       </c>
@@ -759,7 +753,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>1</v>
       </c>
@@ -767,18 +761,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>1</v>
       </c>
-      <c r="C42" t="s">
-        <v>5</v>
-      </c>
-      <c r="D42" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E42" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>1</v>
       </c>
@@ -786,7 +777,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>1</v>
       </c>
@@ -794,7 +785,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>1</v>
       </c>
@@ -802,7 +793,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>6</v>
       </c>
@@ -810,7 +801,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>6</v>
       </c>
@@ -818,7 +809,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>6</v>
       </c>
